--- a/训练中心创客交叉融合空间建设/admin/新大楼规划建设/房间命名方案.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/新大楼规划建设/房间命名方案.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="1960" yWindow="0" windowWidth="25600" windowHeight="16620" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>开放创客空间</t>
   </si>
@@ -63,150 +63,164 @@
     <t>莱特兄弟试飞地</t>
   </si>
   <si>
+    <t>日内瓦</t>
+  </si>
+  <si>
+    <t>维也纳</t>
+  </si>
+  <si>
+    <t>联合国工业发展组织总部所在地</t>
+  </si>
+  <si>
+    <t>世界知识产权组织总部所在地</t>
+  </si>
+  <si>
+    <t>知行阁</t>
+  </si>
+  <si>
+    <t>地下二层邢家鲤读书室</t>
+  </si>
+  <si>
+    <t>工程文化交汇传播之所（邢家鲤图书展陈）</t>
+  </si>
+  <si>
+    <t>先知而后行，知行合一，行胜于言</t>
+  </si>
+  <si>
+    <t>五层西南</t>
+  </si>
+  <si>
+    <t>六层西侧</t>
+  </si>
+  <si>
+    <t>六层东侧</t>
+  </si>
+  <si>
+    <t>基林沃思</t>
+  </si>
+  <si>
+    <t>史蒂芬森第一辆机车（Killingworth）</t>
+  </si>
+  <si>
+    <t>毕昇发明活字印刷</t>
+  </si>
+  <si>
+    <t>汴梁</t>
+  </si>
+  <si>
+    <t>北宋科技集中之处，苏颂之水运仪象台等</t>
+  </si>
+  <si>
+    <t>洛阳</t>
+  </si>
+  <si>
+    <t>东汉张衡制作浑天仪</t>
+  </si>
+  <si>
+    <t>康斯塔特</t>
+  </si>
+  <si>
+    <t>戈特利布·戴姆勒及威廉·迈巴赫研制出第一台内燃机发动机的工作室所在地</t>
+  </si>
+  <si>
+    <t>纽约</t>
+  </si>
+  <si>
+    <t>特斯拉工作地</t>
+  </si>
+  <si>
+    <t>贤聚轩</t>
+  </si>
+  <si>
+    <t>聚集各路豪杰</t>
+  </si>
+  <si>
+    <t>中大型创客活动、发布、展示厅</t>
+  </si>
+  <si>
+    <t>望春之风华，知秋之果实</t>
+  </si>
+  <si>
+    <t>巴黎</t>
+  </si>
+  <si>
+    <t>小鹰</t>
+  </si>
+  <si>
+    <t>蕲州</t>
+  </si>
+  <si>
+    <t>联合国教科文组织总部所在地</t>
+  </si>
+  <si>
+    <t>秋实厅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>春华厅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五层东南</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彦铭轩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放式创新设计与实现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贤达之士在此铭写传奇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放式创新工作室</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精心培育方才收获</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APEC峰会举办地</t>
+  </si>
+  <si>
+    <t>网真会议室，全球连线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雁栖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>博鳌</t>
-  </si>
-  <si>
-    <t>雁栖</t>
-  </si>
-  <si>
-    <t>日内瓦</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>亚洲论坛举办地</t>
-  </si>
-  <si>
-    <r>
-      <t>APEC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>峰会举办地</t>
-    </r>
-  </si>
-  <si>
-    <t>维也纳</t>
-  </si>
-  <si>
-    <t>联合国工业发展组织总部所在地</t>
-  </si>
-  <si>
-    <t>世界知识产权组织总部所在地</t>
-  </si>
-  <si>
-    <t>知行阁</t>
-  </si>
-  <si>
-    <t>地下二层邢家鲤读书室</t>
-  </si>
-  <si>
-    <t>工程文化交汇传播之所（邢家鲤图书展陈）</t>
-  </si>
-  <si>
-    <t>先知而后行，知行合一，行胜于言</t>
-  </si>
-  <si>
-    <t>五层西南</t>
-  </si>
-  <si>
-    <t>六层西侧</t>
-  </si>
-  <si>
-    <t>六层东侧</t>
-  </si>
-  <si>
-    <t>基林沃思</t>
-  </si>
-  <si>
-    <t>史蒂芬森第一辆机车（Killingworth）</t>
-  </si>
-  <si>
-    <t>毕昇发明活字印刷</t>
-  </si>
-  <si>
-    <t>汴梁</t>
-  </si>
-  <si>
-    <t>北宋科技集中之处，苏颂之水运仪象台等</t>
-  </si>
-  <si>
-    <t>洛阳</t>
-  </si>
-  <si>
-    <t>东汉张衡制作浑天仪</t>
-  </si>
-  <si>
-    <t>康斯塔特</t>
-  </si>
-  <si>
-    <t>戈特利布·戴姆勒及威廉·迈巴赫研制出第一台内燃机发动机的工作室所在地</t>
-  </si>
-  <si>
-    <t>纽约</t>
-  </si>
-  <si>
-    <t>特斯拉工作地</t>
-  </si>
-  <si>
-    <t>贤聚轩</t>
-  </si>
-  <si>
-    <t>开放式创新团队工位</t>
-  </si>
-  <si>
-    <t>聚集各路豪杰</t>
-  </si>
-  <si>
-    <t>春华</t>
-  </si>
-  <si>
-    <t>中大型创客活动、发布、展示厅</t>
-  </si>
-  <si>
-    <t>望春之风华，知秋之果实</t>
-  </si>
-  <si>
-    <t>巴黎</t>
-  </si>
-  <si>
-    <t>小鹰</t>
-  </si>
-  <si>
-    <t>蕲州</t>
-  </si>
-  <si>
-    <t>联合国教科文组织总部所在地</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -214,9 +228,20 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
     </font>
   </fonts>
   <fills count="2">
@@ -236,23 +261,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="15">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -581,18 +626,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G28"/>
+  <dimension ref="B1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="39.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
@@ -634,156 +682,193 @@
     </row>
     <row r="3" spans="2:7">
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5129</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5120</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6094</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="D9" s="1">
+        <v>6096</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
+        <v>54</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="E13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
       <c r="E23" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="E24" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="E25" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="E26" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="E27" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="E29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/训练中心创客交叉融合空间建设/admin/新大楼规划建设/房间命名方案.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/新大楼规划建设/房间命名方案.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="0" windowWidth="25600" windowHeight="16620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>开放创客空间</t>
   </si>
@@ -93,9 +93,6 @@
     <t>六层西侧</t>
   </si>
   <si>
-    <t>六层东侧</t>
-  </si>
-  <si>
     <t>基林沃思</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>特斯拉工作地</t>
   </si>
   <si>
-    <t>贤聚轩</t>
-  </si>
-  <si>
     <t>聚集各路豪杰</t>
   </si>
   <si>
@@ -202,17 +196,32 @@
   <si>
     <t>亚洲论坛举办地</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚贤厅</t>
+  </si>
+  <si>
+    <t>六层北侧</t>
+  </si>
+  <si>
+    <t>六层东南大屋的西小屋</t>
+  </si>
+  <si>
+    <t>6094-A</t>
+  </si>
+  <si>
+    <t>五层最东侧北会议室</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -220,7 +229,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -228,13 +237,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -242,6 +251,17 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="仿宋"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Libian SC Regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -278,26 +298,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -629,10 +651,10 @@
   <dimension ref="B1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -694,38 +716,38 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" ht="18">
       <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="1">
         <v>5129</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>36</v>
+      <c r="E4" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1">
         <v>5120</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -733,55 +755,58 @@
         <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6094</v>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="1">
-        <v>6096</v>
+      <c r="C9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="C10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="E10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -802,10 +827,10 @@
     </row>
     <row r="13" spans="2:7">
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:7">
@@ -813,15 +838,15 @@
         <v>4</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="E24" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>13</v>
@@ -829,42 +854,42 @@
     </row>
     <row r="25" spans="2:7">
       <c r="E25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="E26" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="E27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="E28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="E29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/训练中心创客交叉融合空间建设/admin/新大楼规划建设/房间命名方案.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/新大楼规划建设/房间命名方案.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="0" windowWidth="25600" windowHeight="16620" tabRatio="500"/>
+    <workbookView xWindow="1960" yWindow="0" windowWidth="35120" windowHeight="26320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>功能</t>
   </si>
   <si>
-    <t>梧桐居</t>
-  </si>
-  <si>
     <t>寓意</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>世界知识产权组织总部所在地</t>
   </si>
   <si>
-    <t>知行阁</t>
-  </si>
-  <si>
     <t>地下二层邢家鲤读书室</t>
   </si>
   <si>
@@ -129,9 +123,6 @@
     <t>特斯拉工作地</t>
   </si>
   <si>
-    <t>贤聚轩</t>
-  </si>
-  <si>
     <t>聚集各路豪杰</t>
   </si>
   <si>
@@ -153,22 +144,10 @@
     <t>联合国教科文组织总部所在地</t>
   </si>
   <si>
-    <t>秋实厅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>春华厅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>五层东南</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>彦铭轩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>开放式创新设计与实现</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -201,6 +180,30 @@
   </si>
   <si>
     <t>亚洲论坛举办地</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贤聚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彦铭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>春华</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋实</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>知行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>梧桐</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -214,6 +217,7 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -628,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -660,7 +664,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -671,92 +675,92 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
         <v>5129</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1">
         <v>5120</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1">
         <v>6094</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -767,45 +771,45 @@
         <v>6096</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="E10" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:7">
@@ -813,58 +817,58 @@
         <v>4</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="E24" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="E25" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="E26" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="E27" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="E28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="E29" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
